--- a/data/trans_orig/P21D_2_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>13311</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6897</v>
+        <v>7152</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22014</v>
+        <v>23314</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08627126368039889</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04470530508854486</v>
+        <v>0.0463545622734293</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1426816096088241</v>
+        <v>0.1511096665269034</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -762,19 +762,19 @@
         <v>10979</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5745</v>
+        <v>5920</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19208</v>
+        <v>19291</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07915166091868443</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04141880553729376</v>
+        <v>0.04267770852087521</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1384803747495645</v>
+        <v>0.1390776939935763</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -783,19 +783,19 @@
         <v>24290</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16296</v>
+        <v>15375</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36057</v>
+        <v>34965</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08290073435302527</v>
+        <v>0.08290073435302528</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05561964094107688</v>
+        <v>0.05247461731448978</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1230620462380382</v>
+        <v>0.1193373318950241</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>140976</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>132273</v>
+        <v>130973</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147390</v>
+        <v>147135</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9137287363196011</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8573183903911742</v>
+        <v>0.8488903334730964</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9552946949114549</v>
+        <v>0.9536454377265706</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>218</v>
@@ -833,19 +833,19 @@
         <v>127730</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>119501</v>
+        <v>119418</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>132964</v>
+        <v>132789</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9208483390813156</v>
+        <v>0.9208483390813157</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8615196252504351</v>
+        <v>0.8609223060064238</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9585811944627063</v>
+        <v>0.9573222914791246</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>359</v>
@@ -854,19 +854,19 @@
         <v>268706</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>256939</v>
+        <v>258031</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>276700</v>
+        <v>277621</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9170992656469747</v>
+        <v>0.917099265646975</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8769379537619619</v>
+        <v>0.8806626681049758</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9443803590589231</v>
+        <v>0.9475253826855101</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>8088</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3345</v>
+        <v>3706</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16280</v>
+        <v>16670</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03647651787264597</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01508619374837736</v>
+        <v>0.01671519820052638</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07342315939162108</v>
+        <v>0.07517865417338621</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -979,19 +979,19 @@
         <v>5946</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2484</v>
+        <v>2492</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12956</v>
+        <v>14094</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02352642893294527</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009828639749696963</v>
+        <v>0.009861038036285489</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.051265559335332</v>
+        <v>0.05577003784266252</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -1000,19 +1000,19 @@
         <v>14034</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8155</v>
+        <v>7410</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23778</v>
+        <v>22999</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02957861511960971</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01718813920242864</v>
+        <v>0.01561853223399157</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05011624394674071</v>
+        <v>0.04847534391429862</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>213644</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>205452</v>
+        <v>205062</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>218387</v>
+        <v>218026</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9635234821273542</v>
+        <v>0.9635234821273543</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9265768406083789</v>
+        <v>0.9248213458266134</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9849138062516226</v>
+        <v>0.9832848017994736</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>319</v>
@@ -1050,19 +1050,19 @@
         <v>246770</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>239760</v>
+        <v>238622</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>250232</v>
+        <v>250224</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9764735710670547</v>
+        <v>0.9764735710670546</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9487344406646678</v>
+        <v>0.9442299621573369</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9901713602503031</v>
+        <v>0.9901389619637143</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>472</v>
@@ -1071,19 +1071,19 @@
         <v>460414</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>450670</v>
+        <v>451449</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>466293</v>
+        <v>467038</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9704213848803903</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9498837560532589</v>
+        <v>0.9515246560857015</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9828118607975711</v>
+        <v>0.9843814677660085</v>
       </c>
     </row>
     <row r="9">
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4800</v>
+        <v>6271</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01702477734456719</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05158351979722357</v>
+        <v>0.06738850301992919</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1196,19 +1196,19 @@
         <v>4817</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2079</v>
+        <v>2073</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9791</v>
+        <v>9010</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03291312522675916</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01420389103554134</v>
+        <v>0.01416780457722984</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0669049144325024</v>
+        <v>0.06156938601746535</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1217,19 +1217,19 @@
         <v>6401</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3102</v>
+        <v>3162</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11404</v>
+        <v>12032</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02673730276441588</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01295719981698479</v>
+        <v>0.01320877407414159</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04763589851066531</v>
+        <v>0.05026097360833142</v>
       </c>
     </row>
     <row r="11">
@@ -1246,7 +1246,7 @@
         <v>91470</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>88254</v>
+        <v>86783</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>93054</v>
@@ -1255,7 +1255,7 @@
         <v>0.9829752226554328</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9484164802027765</v>
+        <v>0.9326114969800687</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1267,19 +1267,19 @@
         <v>141525</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>136551</v>
+        <v>137332</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>144263</v>
+        <v>144269</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9670868747732406</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9330950855674974</v>
+        <v>0.9384306139825345</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9857961089644586</v>
+        <v>0.98583219542277</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>327</v>
@@ -1288,19 +1288,19 @@
         <v>232995</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>227992</v>
+        <v>227364</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>236294</v>
+        <v>236234</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9732626972355841</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9523641014893348</v>
+        <v>0.9497390263916685</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9870428001830153</v>
+        <v>0.9867912259258584</v>
       </c>
     </row>
     <row r="12">
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4659</v>
+        <v>4665</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006410404744032219</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02312029431321448</v>
+        <v>0.02314869710891359</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4489</v>
+        <v>4637</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003435792953352918</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01193944011262067</v>
+        <v>0.01233318275371502</v>
       </c>
     </row>
     <row r="14">
@@ -1468,7 +1468,7 @@
         <v>200216</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>196849</v>
+        <v>196843</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>201508</v>
@@ -1477,7 +1477,7 @@
         <v>0.9935895952559678</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9768797056867852</v>
+        <v>0.9768513028910865</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1489,7 +1489,7 @@
         <v>374676</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>371479</v>
+        <v>371331</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>375968</v>
@@ -1498,7 +1498,7 @@
         <v>0.9965642070466471</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9880605598873803</v>
+        <v>0.9876668172462849</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1762,19 +1762,19 @@
         <v>7440</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3738</v>
+        <v>3779</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12543</v>
+        <v>13348</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05865481090132188</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02946653532576719</v>
+        <v>0.02979369281368249</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09888104941473833</v>
+        <v>0.1052278778709306</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1783,19 +1783,19 @@
         <v>4866</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1990</v>
+        <v>2193</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10080</v>
+        <v>9817</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04279417681572194</v>
+        <v>0.04279417681572193</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01750393961272676</v>
+        <v>0.01928491488776583</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08863948781356878</v>
+        <v>0.08632546922124766</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -1804,19 +1804,19 @@
         <v>12307</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7467</v>
+        <v>7523</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18981</v>
+        <v>18942</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05115733832780189</v>
+        <v>0.0511573383278019</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03104139999914373</v>
+        <v>0.03127398051075987</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07890257906280587</v>
+        <v>0.07874192429514203</v>
       </c>
     </row>
     <row r="20">
@@ -1833,19 +1833,19 @@
         <v>119406</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>114303</v>
+        <v>113498</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>123108</v>
+        <v>123067</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9413451890986783</v>
+        <v>0.9413451890986781</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9011189505852619</v>
+        <v>0.8947721221290694</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9705334646742328</v>
+        <v>0.9702063071863174</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>192</v>
@@ -1854,19 +1854,19 @@
         <v>108850</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>103636</v>
+        <v>103899</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>111726</v>
+        <v>111523</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9572058231842783</v>
+        <v>0.9572058231842779</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.911360512186431</v>
+        <v>0.9136745307787524</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9824960603872732</v>
+        <v>0.9807150851122343</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>359</v>
@@ -1875,19 +1875,19 @@
         <v>228255</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>221581</v>
+        <v>221620</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>233095</v>
+        <v>233039</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.948842661672198</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.921097420937194</v>
+        <v>0.921258075704858</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9689586000008564</v>
+        <v>0.9687260194892401</v>
       </c>
     </row>
     <row r="21">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5620</v>
+        <v>5655</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003111775766953901</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01593047825926892</v>
+        <v>0.01602937204375405</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2000,19 +2000,19 @@
         <v>7338</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3426</v>
+        <v>3484</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12723</v>
+        <v>13082</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0206999905705194</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009665268013219781</v>
+        <v>0.009828891948077886</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03589029472129689</v>
+        <v>0.03690141230932654</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -2021,19 +2021,19 @@
         <v>8436</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4333</v>
+        <v>4421</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15305</v>
+        <v>15929</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01192699823809904</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006125327416758109</v>
+        <v>0.006249744053658575</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02163827248080539</v>
+        <v>0.02252012656579775</v>
       </c>
     </row>
     <row r="23">
@@ -2050,7 +2050,7 @@
         <v>351709</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>347187</v>
+        <v>347152</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>352807</v>
@@ -2059,7 +2059,7 @@
         <v>0.996888224233046</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9840695217407315</v>
+        <v>0.983970627956246</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2071,19 +2071,19 @@
         <v>347167</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>341782</v>
+        <v>341423</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>351079</v>
+        <v>351021</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9793000094294805</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.964109705278703</v>
+        <v>0.9630985876906734</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9903347319867801</v>
+        <v>0.9901711080519221</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>709</v>
@@ -2092,19 +2092,19 @@
         <v>698876</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>692007</v>
+        <v>691383</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>702979</v>
+        <v>702891</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9880730017619009</v>
+        <v>0.988073001761901</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9783617275191948</v>
+        <v>0.9774798734342028</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.993874672583242</v>
+        <v>0.9937502559463419</v>
       </c>
     </row>
     <row r="24">
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7283</v>
+        <v>7183</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005602223130883032</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02019436509750085</v>
+        <v>0.01991671214011797</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2217,19 +2217,19 @@
         <v>5317</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2268</v>
+        <v>2180</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10782</v>
+        <v>10202</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01304148722777533</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00556164995247341</v>
+        <v>0.005345998805016995</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02644347431861069</v>
+        <v>0.02502238298486209</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -2238,19 +2238,19 @@
         <v>7338</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3626</v>
+        <v>3305</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13089</v>
+        <v>13848</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009549670872312038</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004719111764776871</v>
+        <v>0.004300707647378482</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01703423562189271</v>
+        <v>0.01802253657343411</v>
       </c>
     </row>
     <row r="26">
@@ -2267,7 +2267,7 @@
         <v>358646</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>353384</v>
+        <v>353484</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>360667</v>
@@ -2276,7 +2276,7 @@
         <v>0.9943977768691169</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9798056349024994</v>
+        <v>0.980083287859882</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2288,19 +2288,19 @@
         <v>402412</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>396947</v>
+        <v>397527</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>405461</v>
+        <v>405549</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9869585127722246</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9735565256813894</v>
+        <v>0.9749776170151376</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9944383500475267</v>
+        <v>0.994654001194983</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>840</v>
@@ -2309,19 +2309,19 @@
         <v>761058</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>755307</v>
+        <v>754548</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>764770</v>
+        <v>765091</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.990450329127688</v>
+        <v>0.9904503291276882</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9829657643781072</v>
+        <v>0.9819774634265661</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9952808882352232</v>
+        <v>0.9956992923526213</v>
       </c>
     </row>
     <row r="27">
@@ -2413,19 +2413,19 @@
         <v>33541</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22911</v>
+        <v>23925</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>47986</v>
+        <v>47379</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02138739743200314</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01460916990036885</v>
+        <v>0.01525562204858178</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03059811407277426</v>
+        <v>0.03021109082032805</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>56</v>
@@ -2434,19 +2434,19 @@
         <v>40555</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>30554</v>
+        <v>30516</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>53748</v>
+        <v>54238</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02393168275672912</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01802994238425104</v>
+        <v>0.01800778550526659</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0317171778097487</v>
+        <v>0.03200643812850464</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>90</v>
@@ -2455,19 +2455,19 @@
         <v>74096</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>59943</v>
+        <v>58066</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>92723</v>
+        <v>92806</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.02270879692959297</v>
+        <v>0.02270879692959296</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01837119975296615</v>
+        <v>0.01779602793129704</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02841750501098507</v>
+        <v>0.02844298010347283</v>
       </c>
     </row>
     <row r="29">
@@ -2484,19 +2484,19 @@
         <v>1534733</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1520288</v>
+        <v>1520895</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1545363</v>
+        <v>1544349</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9786126025679969</v>
+        <v>0.978612602567997</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9694018859272256</v>
+        <v>0.9697889091796719</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9853908300996311</v>
+        <v>0.9847443779514182</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2318</v>
@@ -2505,19 +2505,19 @@
         <v>1654056</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1640863</v>
+        <v>1640373</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1664057</v>
+        <v>1664095</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.976068317243271</v>
+        <v>0.9760683172432709</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.968282822190252</v>
+        <v>0.9679935618714953</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.981970057615749</v>
+        <v>0.9819922144947333</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3744</v>
@@ -2526,19 +2526,19 @@
         <v>3188789</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3170162</v>
+        <v>3170079</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3202942</v>
+        <v>3204819</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9772912030704072</v>
+        <v>0.977291203070407</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9715824949890151</v>
+        <v>0.9715570198965272</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.981628800247034</v>
+        <v>0.9822039720687028</v>
       </c>
     </row>
     <row r="30">
